--- a/artfynd/A 71887-2021.xlsx
+++ b/artfynd/A 71887-2021.xlsx
@@ -1152,7 +1152,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74825621</v>
+        <v>74825618</v>
       </c>
       <c r="B6" t="n">
         <v>4717</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>635778.1134565037</v>
+        <v>635969.0379152392</v>
       </c>
       <c r="R6" t="n">
-        <v>6517624.051674079</v>
+        <v>6517709.110210423</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74825618</v>
+        <v>74825623</v>
       </c>
       <c r="B7" t="n">
-        <v>4717</v>
+        <v>93158</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,21 +1280,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102306</v>
+        <v>2818</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>635969.0379152392</v>
+        <v>635877.0551628179</v>
       </c>
       <c r="R7" t="n">
-        <v>6517709.110210423</v>
+        <v>6517560.061384213</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74825623</v>
+        <v>74825619</v>
       </c>
       <c r="B8" t="n">
-        <v>93158</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2818</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>635877.0551628179</v>
+        <v>635969.0379152392</v>
       </c>
       <c r="R8" t="n">
-        <v>6517560.061384213</v>
+        <v>6517709.110210423</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74825619</v>
+        <v>84982788</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>90138</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,37 +1504,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hånö-Kärr, Srm</t>
+          <t>Kärr, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>635969.0379152392</v>
+        <v>635883.4449681807</v>
       </c>
       <c r="R9" t="n">
-        <v>6517709.110210423</v>
+        <v>6517466.875374788</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-09-12</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-09-12</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1588,22 +1588,26 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Markus Forsberg</t>
+          <t>Ralf Lundmark</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Markus Forsberg</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Ralf Lundmark</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kryptogamer i Södermanlands län</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84982788</v>
+        <v>84982789</v>
       </c>
       <c r="B10" t="n">
-        <v>90138</v>
+        <v>93158</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,25 +1616,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>366</v>
+        <v>2818</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1644,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>635883.4449681807</v>
+        <v>635878.212690325</v>
       </c>
       <c r="R10" t="n">
-        <v>6517466.875374788</v>
+        <v>6517571.518665905</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1716,10 +1720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84982787</v>
+        <v>74825621</v>
       </c>
       <c r="B11" t="n">
-        <v>43464</v>
+        <v>4717</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,37 +1736,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>101735</v>
+        <v>102306</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kärr, Srm</t>
+          <t>Hånö-Kärr, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>635778.11899246</v>
+        <v>635778.1134565037</v>
       </c>
       <c r="R11" t="n">
-        <v>6517579.423625848</v>
+        <v>6517624.051674079</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1786,7 +1790,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2018-09-12</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1796,7 +1800,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2018-09-12</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1816,26 +1820,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Ralf Lundmark</t>
+          <t>Markus Forsberg</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Ralf Lundmark</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Kryptogamer i Södermanlands län</t>
-        </is>
-      </c>
+          <t>Markus Forsberg</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84982789</v>
+        <v>84982787</v>
       </c>
       <c r="B12" t="n">
-        <v>93158</v>
+        <v>43464</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,21 +1848,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2818</v>
+        <v>101735</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>635878.212690325</v>
+        <v>635778.11899246</v>
       </c>
       <c r="R12" t="n">
-        <v>6517571.518665905</v>
+        <v>6517579.423625848</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>

--- a/artfynd/A 71887-2021.xlsx
+++ b/artfynd/A 71887-2021.xlsx
@@ -1152,7 +1152,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74825618</v>
+        <v>74825621</v>
       </c>
       <c r="B6" t="n">
         <v>4717</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>635969.0379152392</v>
+        <v>635778.1134565037</v>
       </c>
       <c r="R6" t="n">
-        <v>6517709.110210423</v>
+        <v>6517624.051674079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74825623</v>
+        <v>74825618</v>
       </c>
       <c r="B7" t="n">
-        <v>93158</v>
+        <v>4717</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,21 +1280,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2818</v>
+        <v>102306</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>635877.0551628179</v>
+        <v>635969.0379152392</v>
       </c>
       <c r="R7" t="n">
-        <v>6517560.061384213</v>
+        <v>6517709.110210423</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74825619</v>
+        <v>74825623</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>93158</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>2818</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>635969.0379152392</v>
+        <v>635877.0551628179</v>
       </c>
       <c r="R8" t="n">
-        <v>6517709.110210423</v>
+        <v>6517560.061384213</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84982788</v>
+        <v>74825619</v>
       </c>
       <c r="B9" t="n">
-        <v>90138</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,37 +1504,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>366</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kärr, Srm</t>
+          <t>Hånö-Kärr, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>635883.4449681807</v>
+        <v>635969.0379152392</v>
       </c>
       <c r="R9" t="n">
-        <v>6517466.875374788</v>
+        <v>6517709.110210423</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2018-09-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2018-09-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1588,26 +1588,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Ralf Lundmark</t>
+          <t>Markus Forsberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Ralf Lundmark</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Kryptogamer i Södermanlands län</t>
-        </is>
-      </c>
+          <t>Markus Forsberg</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84982789</v>
+        <v>84982788</v>
       </c>
       <c r="B10" t="n">
-        <v>93158</v>
+        <v>90138</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,25 +1612,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2818</v>
+        <v>366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1644,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>635878.212690325</v>
+        <v>635883.4449681807</v>
       </c>
       <c r="R10" t="n">
-        <v>6517571.518665905</v>
+        <v>6517466.875374788</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1720,10 +1716,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74825621</v>
+        <v>84982787</v>
       </c>
       <c r="B11" t="n">
-        <v>4717</v>
+        <v>43464</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,37 +1732,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102306</v>
+        <v>101735</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Hånö-Kärr, Srm</t>
+          <t>Kärr, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>635778.1134565037</v>
+        <v>635778.11899246</v>
       </c>
       <c r="R11" t="n">
-        <v>6517624.051674079</v>
+        <v>6517579.423625848</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1790,7 +1786,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2018-09-12</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1800,7 +1796,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2018-09-12</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1820,22 +1816,26 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Markus Forsberg</t>
+          <t>Ralf Lundmark</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Markus Forsberg</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Ralf Lundmark</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Kryptogamer i Södermanlands län</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84982787</v>
+        <v>84982789</v>
       </c>
       <c r="B12" t="n">
-        <v>43464</v>
+        <v>93158</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,21 +1848,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>101735</v>
+        <v>2818</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>635778.11899246</v>
+        <v>635878.212690325</v>
       </c>
       <c r="R12" t="n">
-        <v>6517579.423625848</v>
+        <v>6517571.518665905</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
